--- a/Tatulya/create cards/07.04.2024/Data_to_create_07.04.2024.xlsx
+++ b/Tatulya/create cards/07.04.2024/Data_to_create_07.04.2024.xlsx
@@ -2231,8 +2231,8 @@
   </sheetPr>
   <dimension ref="A1:BS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y41" activeCellId="0" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5033,8 +5033,8 @@
         <v>78</v>
       </c>
       <c r="Y17" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H17,C17,"_1.jpg;"),CONCATENATE(H17,C17,"_2.jpg;"),CONCATENATE(H17,C17,"_3.jpg;"),CONCATENATE(H17,C17,"_4.jpg;"),CONCATENATE(H17,C17,"_5.jpg;"),CONCATENATE(H17,C17,"_6.jpg;"),CONCATENATE(H17,C17,"_7.jpg;"),CONCATENATE(H17,"instruction_A4.jpg;"),CONCATENATE(H17,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H17,C17,"_1.jpg;"),CONCATENATE(H17,C17,"_2.jpg;"),CONCATENATE(H17,C17,"_3.jpg;"),CONCATENATE(H17,C17,"_4.jpg;"),CONCATENATE(H17,C17,"_5.jpg;"),CONCATENATE(H17,"instruction_A4.jpg;"),CONCATENATE(H17,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/72_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA17" s="0" t="str">
         <f aca="false">A17</f>
@@ -5197,8 +5197,8 @@
         <v>78</v>
       </c>
       <c r="Y18" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H18,C18,"_1.jpg;"),CONCATENATE(H18,C18,"_2.jpg;"),CONCATENATE(H18,C18,"_3.jpg;"),CONCATENATE(H18,C18,"_4.jpg;"),CONCATENATE(H18,C18,"_5.jpg;"),CONCATENATE(H18,C18,"_6.jpg;"),CONCATENATE(H18,C18,"_7.jpg;"),CONCATENATE(H18,"instruction_A4.jpg;"),CONCATENATE(H18,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H18,C18,"_1.jpg;"),CONCATENATE(H18,C18,"_2.jpg;"),CONCATENATE(H18,C18,"_3.jpg;"),CONCATENATE(H18,C18,"_4.jpg;"),CONCATENATE(H18,C18,"_5.jpg;"),CONCATENATE(H18,"instruction_A5.jpg;"),CONCATENATE(H18,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/73_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA18" s="0" t="str">
         <f aca="false">A18</f>
@@ -5361,8 +5361,8 @@
         <v>78</v>
       </c>
       <c r="Y19" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H19,C19,"_1.jpg;"),CONCATENATE(H19,C19,"_2.jpg;"),CONCATENATE(H19,C19,"_3.jpg;"),CONCATENATE(H19,C19,"_4.jpg;"),CONCATENATE(H19,C19,"_5.jpg;"),CONCATENATE(H19,C19,"_6.jpg;"),CONCATENATE(H19,C19,"_7.jpg;"),CONCATENATE(H19,"instruction_A4.jpg;"),CONCATENATE(H19,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H19,C19,"_1.jpg;"),CONCATENATE(H19,C19,"_2.jpg;"),CONCATENATE(H19,C19,"_3.jpg;"),CONCATENATE(H19,C19,"_4.jpg;"),CONCATENATE(H19,C19,"_5.jpg;"),CONCATENATE(H19,"instruction_A5.jpg;"),CONCATENATE(H19,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/74_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA19" s="0" t="str">
         <f aca="false">A19</f>
@@ -5525,8 +5525,8 @@
         <v>78</v>
       </c>
       <c r="Y20" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H20,C20,"_1.jpg;"),CONCATENATE(H20,C20,"_2.jpg;"),CONCATENATE(H20,C20,"_3.jpg;"),CONCATENATE(H20,C20,"_4.jpg;"),CONCATENATE(H20,C20,"_5.jpg;"),CONCATENATE(H20,C20,"_6.jpg;"),CONCATENATE(H20,C20,"_7.jpg;"),CONCATENATE(H20,"instruction_A4.jpg;"),CONCATENATE(H20,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H20,C20,"_1.jpg;"),CONCATENATE(H20,C20,"_2.jpg;"),CONCATENATE(H20,C20,"_3.jpg;"),CONCATENATE(H20,C20,"_4.jpg;"),CONCATENATE(H20,C20,"_5.jpg;"),CONCATENATE(H20,"instruction_A5.jpg;"),CONCATENATE(H20,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/75_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA20" s="0" t="str">
         <f aca="false">A20</f>
@@ -5689,8 +5689,8 @@
         <v>78</v>
       </c>
       <c r="Y21" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H21,C21,"_1.jpg;"),CONCATENATE(H21,C21,"_2.jpg;"),CONCATENATE(H21,C21,"_3.jpg;"),CONCATENATE(H21,C21,"_4.jpg;"),CONCATENATE(H21,C21,"_5.jpg;"),CONCATENATE(H21,C21,"_6.jpg;"),CONCATENATE(H21,C21,"_7.jpg;"),CONCATENATE(H21,"instruction_A4.jpg;"),CONCATENATE(H21,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H21,C21,"_1.jpg;"),CONCATENATE(H21,C21,"_2.jpg;"),CONCATENATE(H21,C21,"_3.jpg;"),CONCATENATE(H21,C21,"_4.jpg;"),CONCATENATE(H21,C21,"_5.jpg;"),CONCATENATE(H21,"instruction_A5.jpg;"),CONCATENATE(H21,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/77_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA21" s="0" t="str">
         <f aca="false">A21</f>
@@ -5853,8 +5853,8 @@
         <v>78</v>
       </c>
       <c r="Y22" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H22,C22,"_1.jpg;"),CONCATENATE(H22,C22,"_2.jpg;"),CONCATENATE(H22,C22,"_3.jpg;"),CONCATENATE(H22,C22,"_4.jpg;"),CONCATENATE(H22,C22,"_5.jpg;"),CONCATENATE(H22,C22,"_6.jpg;"),CONCATENATE(H22,C22,"_7.jpg;"),CONCATENATE(H22,"instruction_A4.jpg;"),CONCATENATE(H22,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H22,C22,"_1.jpg;"),CONCATENATE(H22,C22,"_2.jpg;"),CONCATENATE(H22,C22,"_3.jpg;"),CONCATENATE(H22,C22,"_4.jpg;"),CONCATENATE(H22,C22,"_5.jpg;"),CONCATENATE(H22,"instruction_A5.jpg;"),CONCATENATE(H22,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/79_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA22" s="0" t="str">
         <f aca="false">A22</f>
@@ -6017,8 +6017,8 @@
         <v>78</v>
       </c>
       <c r="Y23" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H23,C23,"_1.jpg;"),CONCATENATE(H23,C23,"_2.jpg;"),CONCATENATE(H23,C23,"_3.jpg;"),CONCATENATE(H23,C23,"_4.jpg;"),CONCATENATE(H23,C23,"_5.jpg;"),CONCATENATE(H23,C23,"_6.jpg;"),CONCATENATE(H23,C23,"_7.jpg;"),CONCATENATE(H23,"instruction_A4.jpg;"),CONCATENATE(H23,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H23,C23,"_1.jpg;"),CONCATENATE(H23,C23,"_2.jpg;"),CONCATENATE(H23,C23,"_3.jpg;"),CONCATENATE(H23,C23,"_4.jpg;"),CONCATENATE(H23,C23,"_5.jpg;"),CONCATENATE(H23,"instruction_A5.jpg;"),CONCATENATE(H23,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/80_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA23" s="0" t="str">
         <f aca="false">A23</f>
@@ -6181,8 +6181,8 @@
         <v>78</v>
       </c>
       <c r="Y24" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H24,C24,"_1.jpg;"),CONCATENATE(H24,C24,"_2.jpg;"),CONCATENATE(H24,C24,"_3.jpg;"),CONCATENATE(H24,C24,"_4.jpg;"),CONCATENATE(H24,C24,"_5.jpg;"),CONCATENATE(H24,C24,"_6.jpg;"),CONCATENATE(H24,C24,"_7.jpg;"),CONCATENATE(H24,"instruction_A4.jpg;"),CONCATENATE(H24,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H24,C24,"_1.jpg;"),CONCATENATE(H24,C24,"_2.jpg;"),CONCATENATE(H24,C24,"_3.jpg;"),CONCATENATE(H24,C24,"_4.jpg;"),CONCATENATE(H24,C24,"_5.jpg;"),CONCATENATE(H24,"instruction_A5.jpg;"),CONCATENATE(H24,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/81_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA24" s="0" t="str">
         <f aca="false">A24</f>
@@ -6345,8 +6345,8 @@
         <v>78</v>
       </c>
       <c r="Y25" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H25,C25,"_1.jpg;"),CONCATENATE(H25,C25,"_2.jpg;"),CONCATENATE(H25,C25,"_3.jpg;"),CONCATENATE(H25,C25,"_4.jpg;"),CONCATENATE(H25,C25,"_5.jpg;"),CONCATENATE(H25,C25,"_6.jpg;"),CONCATENATE(H25,C25,"_7.jpg;"),CONCATENATE(H25,"instruction_A4.jpg;"),CONCATENATE(H25,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H25,C25,"_1.jpg;"),CONCATENATE(H25,C25,"_2.jpg;"),CONCATENATE(H25,C25,"_3.jpg;"),CONCATENATE(H25,C25,"_4.jpg;"),CONCATENATE(H25,C25,"_5.jpg;"),CONCATENATE(H25,"instruction_A5.jpg;"),CONCATENATE(H25,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/82_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA25" s="0" t="str">
         <f aca="false">A25</f>
@@ -6509,8 +6509,8 @@
         <v>78</v>
       </c>
       <c r="Y26" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H26,C26,"_1.jpg;"),CONCATENATE(H26,C26,"_2.jpg;"),CONCATENATE(H26,C26,"_3.jpg;"),CONCATENATE(H26,C26,"_4.jpg;"),CONCATENATE(H26,C26,"_5.jpg;"),CONCATENATE(H26,C26,"_6.jpg;"),CONCATENATE(H26,C26,"_7.jpg;"),CONCATENATE(H26,"instruction_A4.jpg;"),CONCATENATE(H26,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H26,C26,"_1.jpg;"),CONCATENATE(H26,C26,"_2.jpg;"),CONCATENATE(H26,C26,"_3.jpg;"),CONCATENATE(H26,C26,"_4.jpg;"),CONCATENATE(H26,C26,"_5.jpg;"),CONCATENATE(H26,"instruction_A5.jpg;"),CONCATENATE(H26,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/84_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA26" s="0" t="str">
         <f aca="false">A26</f>
@@ -6673,8 +6673,8 @@
         <v>78</v>
       </c>
       <c r="Y27" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H27,C27,"_1.jpg;"),CONCATENATE(H27,C27,"_2.jpg;"),CONCATENATE(H27,C27,"_3.jpg;"),CONCATENATE(H27,C27,"_4.jpg;"),CONCATENATE(H27,C27,"_5.jpg;"),CONCATENATE(H27,C27,"_6.jpg;"),CONCATENATE(H27,C27,"_7.jpg;"),CONCATENATE(H27,"instruction_A4.jpg;"),CONCATENATE(H27,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H27,C27,"_1.jpg;"),CONCATENATE(H27,C27,"_2.jpg;"),CONCATENATE(H27,C27,"_3.jpg;"),CONCATENATE(H27,C27,"_4.jpg;"),CONCATENATE(H27,C27,"_5.jpg;"),CONCATENATE(H27,"instruction_A5.jpg;"),CONCATENATE(H27,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/87_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA27" s="0" t="str">
         <f aca="false">A27</f>
@@ -6837,8 +6837,8 @@
         <v>78</v>
       </c>
       <c r="Y28" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H28,C28,"_1.jpg;"),CONCATENATE(H28,C28,"_2.jpg;"),CONCATENATE(H28,C28,"_3.jpg;"),CONCATENATE(H28,C28,"_4.jpg;"),CONCATENATE(H28,C28,"_5.jpg;"),CONCATENATE(H28,C28,"_6.jpg;"),CONCATENATE(H28,C28,"_7.jpg;"),CONCATENATE(H28,"instruction_A4.jpg;"),CONCATENATE(H28,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H28,C28,"_1.jpg;"),CONCATENATE(H28,C28,"_2.jpg;"),CONCATENATE(H28,C28,"_3.jpg;"),CONCATENATE(H28,C28,"_4.jpg;"),CONCATENATE(H28,C28,"_5.jpg;"),CONCATENATE(H28,"instruction_A5.jpg;"),CONCATENATE(H28,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/88_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA28" s="0" t="str">
         <f aca="false">A28</f>
@@ -7001,8 +7001,8 @@
         <v>78</v>
       </c>
       <c r="Y29" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H29,C29,"_1.jpg;"),CONCATENATE(H29,C29,"_2.jpg;"),CONCATENATE(H29,C29,"_3.jpg;"),CONCATENATE(H29,C29,"_4.jpg;"),CONCATENATE(H29,C29,"_5.jpg;"),CONCATENATE(H29,C29,"_6.jpg;"),CONCATENATE(H29,C29,"_7.jpg;"),CONCATENATE(H29,"instruction_A4.jpg;"),CONCATENATE(H29,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H29,C29,"_1.jpg;"),CONCATENATE(H29,C29,"_2.jpg;"),CONCATENATE(H29,C29,"_3.jpg;"),CONCATENATE(H29,C29,"_4.jpg;"),CONCATENATE(H29,C29,"_5.jpg;"),CONCATENATE(H29,"instruction_A5.jpg;"),CONCATENATE(H29,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/89_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA29" s="0" t="str">
         <f aca="false">A29</f>
@@ -7165,8 +7165,8 @@
         <v>78</v>
       </c>
       <c r="Y30" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H30,C30,"_1.jpg;"),CONCATENATE(H30,C30,"_2.jpg;"),CONCATENATE(H30,C30,"_3.jpg;"),CONCATENATE(H30,C30,"_4.jpg;"),CONCATENATE(H30,C30,"_5.jpg;"),CONCATENATE(H30,C30,"_6.jpg;"),CONCATENATE(H30,C30,"_7.jpg;"),CONCATENATE(H30,"instruction_A4.jpg;"),CONCATENATE(H30,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H30,C30,"_1.jpg;"),CONCATENATE(H30,C30,"_2.jpg;"),CONCATENATE(H30,C30,"_3.jpg;"),CONCATENATE(H30,C30,"_4.jpg;"),CONCATENATE(H30,C30,"_5.jpg;"),CONCATENATE(H30,"instruction_A5.jpg;"),CONCATENATE(H30,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/90_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA30" s="0" t="str">
         <f aca="false">A30</f>
@@ -7329,8 +7329,8 @@
         <v>78</v>
       </c>
       <c r="Y31" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H31,C31,"_1.jpg;"),CONCATENATE(H31,C31,"_2.jpg;"),CONCATENATE(H31,C31,"_3.jpg;"),CONCATENATE(H31,C31,"_4.jpg;"),CONCATENATE(H31,C31,"_5.jpg;"),CONCATENATE(H31,C31,"_6.jpg;"),CONCATENATE(H31,C31,"_7.jpg;"),CONCATENATE(H31,"instruction_A4.jpg;"),CONCATENATE(H31,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H31,C31,"_1.jpg;"),CONCATENATE(H31,C31,"_2.jpg;"),CONCATENATE(H31,C31,"_3.jpg;"),CONCATENATE(H31,C31,"_4.jpg;"),CONCATENATE(H31,C31,"_5.jpg;"),CONCATENATE(H31,"instruction_A5.jpg;"),CONCATENATE(H31,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/92_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA31" s="0" t="str">
         <f aca="false">A31</f>
@@ -7493,8 +7493,8 @@
         <v>78</v>
       </c>
       <c r="Y32" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H32,C32,"_1.jpg;"),CONCATENATE(H32,C32,"_2.jpg;"),CONCATENATE(H32,C32,"_3.jpg;"),CONCATENATE(H32,C32,"_4.jpg;"),CONCATENATE(H32,C32,"_5.jpg;"),CONCATENATE(H32,C32,"_6.jpg;"),CONCATENATE(H32,C32,"_7.jpg;"),CONCATENATE(H32,"instruction_A4.jpg;"),CONCATENATE(H32,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H32,C32,"_1.jpg;"),CONCATENATE(H32,C32,"_2.jpg;"),CONCATENATE(H32,C32,"_3.jpg;"),CONCATENATE(H32,C32,"_4.jpg;"),CONCATENATE(H32,C32,"_5.jpg;"),CONCATENATE(H32,"instruction_A5.jpg;"),CONCATENATE(H32,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/93_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA32" s="0" t="str">
         <f aca="false">A32</f>
@@ -7657,8 +7657,8 @@
         <v>78</v>
       </c>
       <c r="Y33" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H33,C33,"_1.jpg;"),CONCATENATE(H33,C33,"_2.jpg;"),CONCATENATE(H33,C33,"_3.jpg;"),CONCATENATE(H33,C33,"_4.jpg;"),CONCATENATE(H33,C33,"_5.jpg;"),CONCATENATE(H33,C33,"_6.jpg;"),CONCATENATE(H33,C33,"_7.jpg;"),CONCATENATE(H33,"instruction_A4.jpg;"),CONCATENATE(H33,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H33,C33,"_1.jpg;"),CONCATENATE(H33,C33,"_2.jpg;"),CONCATENATE(H33,C33,"_3.jpg;"),CONCATENATE(H33,C33,"_4.jpg;"),CONCATENATE(H33,C33,"_5.jpg;"),CONCATENATE(H33,"instruction_A5.jpg;"),CONCATENATE(H33,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/120_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA33" s="0" t="str">
         <f aca="false">A33</f>
@@ -7821,8 +7821,8 @@
         <v>78</v>
       </c>
       <c r="Y34" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H34,C34,"_1.jpg;"),CONCATENATE(H34,C34,"_2.jpg;"),CONCATENATE(H34,C34,"_3.jpg;"),CONCATENATE(H34,C34,"_4.jpg;"),CONCATENATE(H34,C34,"_5.jpg;"),CONCATENATE(H34,C34,"_6.jpg;"),CONCATENATE(H34,C34,"_7.jpg;"),CONCATENATE(H34,"instruction_A4.jpg;"),CONCATENATE(H34,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H34,C34,"_1.jpg;"),CONCATENATE(H34,C34,"_2.jpg;"),CONCATENATE(H34,C34,"_3.jpg;"),CONCATENATE(H34,C34,"_4.jpg;"),CONCATENATE(H34,C34,"_5.jpg;"),CONCATENATE(H34,"instruction_A5.jpg;"),CONCATENATE(H34,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/121_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA34" s="0" t="str">
         <f aca="false">A34</f>
@@ -7985,8 +7985,8 @@
         <v>78</v>
       </c>
       <c r="Y35" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H35,C35,"_1.jpg;"),CONCATENATE(H35,C35,"_2.jpg;"),CONCATENATE(H35,C35,"_3.jpg;"),CONCATENATE(H35,C35,"_4.jpg;"),CONCATENATE(H35,C35,"_5.jpg;"),CONCATENATE(H35,C35,"_6.jpg;"),CONCATENATE(H35,C35,"_7.jpg;"),CONCATENATE(H35,"instruction_A4.jpg;"),CONCATENATE(H35,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H35,C35,"_1.jpg;"),CONCATENATE(H35,C35,"_2.jpg;"),CONCATENATE(H35,C35,"_3.jpg;"),CONCATENATE(H35,C35,"_4.jpg;"),CONCATENATE(H35,C35,"_5.jpg;"),CONCATENATE(H35,"instruction_A5.jpg;"),CONCATENATE(H35,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/122_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA35" s="0" t="str">
         <f aca="false">A35</f>
@@ -8149,8 +8149,8 @@
         <v>78</v>
       </c>
       <c r="Y36" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H36,C36,"_1.jpg;"),CONCATENATE(H36,C36,"_2.jpg;"),CONCATENATE(H36,C36,"_3.jpg;"),CONCATENATE(H36,C36,"_4.jpg;"),CONCATENATE(H36,C36,"_5.jpg;"),CONCATENATE(H36,C36,"_6.jpg;"),CONCATENATE(H36,C36,"_7.jpg;"),CONCATENATE(H36,"instruction_A4.jpg;"),CONCATENATE(H36,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H36,C36,"_1.jpg;"),CONCATENATE(H36,C36,"_2.jpg;"),CONCATENATE(H36,C36,"_3.jpg;"),CONCATENATE(H36,C36,"_4.jpg;"),CONCATENATE(H36,C36,"_5.jpg;"),CONCATENATE(H36,"instruction_A5.jpg;"),CONCATENATE(H36,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/123_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA36" s="0" t="str">
         <f aca="false">A36</f>
@@ -8313,8 +8313,8 @@
         <v>78</v>
       </c>
       <c r="Y37" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H37,C37,"_1.jpg;"),CONCATENATE(H37,C37,"_2.jpg;"),CONCATENATE(H37,C37,"_3.jpg;"),CONCATENATE(H37,C37,"_4.jpg;"),CONCATENATE(H37,C37,"_5.jpg;"),CONCATENATE(H37,C37,"_6.jpg;"),CONCATENATE(H37,C37,"_7.jpg;"),CONCATENATE(H37,"instruction_A4.jpg;"),CONCATENATE(H37,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H37,C37,"_1.jpg;"),CONCATENATE(H37,C37,"_2.jpg;"),CONCATENATE(H37,C37,"_3.jpg;"),CONCATENATE(H37,C37,"_4.jpg;"),CONCATENATE(H37,C37,"_5.jpg;"),CONCATENATE(H37,"instruction_A5.jpg;"),CONCATENATE(H37,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/124_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA37" s="0" t="str">
         <f aca="false">A37</f>
@@ -8477,8 +8477,8 @@
         <v>78</v>
       </c>
       <c r="Y38" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H38,C38,"_1.jpg;"),CONCATENATE(H38,C38,"_2.jpg;"),CONCATENATE(H38,C38,"_3.jpg;"),CONCATENATE(H38,C38,"_4.jpg;"),CONCATENATE(H38,C38,"_5.jpg;"),CONCATENATE(H38,C38,"_6.jpg;"),CONCATENATE(H38,C38,"_7.jpg;"),CONCATENATE(H38,"instruction_A4.jpg;"),CONCATENATE(H38,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H38,C38,"_1.jpg;"),CONCATENATE(H38,C38,"_2.jpg;"),CONCATENATE(H38,C38,"_3.jpg;"),CONCATENATE(H38,C38,"_4.jpg;"),CONCATENATE(H38,C38,"_5.jpg;"),CONCATENATE(H38,"instruction_A5.jpg;"),CONCATENATE(H38,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/125_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA38" s="0" t="str">
         <f aca="false">A38</f>
@@ -8641,8 +8641,8 @@
         <v>78</v>
       </c>
       <c r="Y39" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H39,C39,"_1.jpg;"),CONCATENATE(H39,C39,"_2.jpg;"),CONCATENATE(H39,C39,"_3.jpg;"),CONCATENATE(H39,C39,"_4.jpg;"),CONCATENATE(H39,C39,"_5.jpg;"),CONCATENATE(H39,C39,"_6.jpg;"),CONCATENATE(H39,C39,"_7.jpg;"),CONCATENATE(H39,"instruction_A4.jpg;"),CONCATENATE(H39,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H39,C39,"_1.jpg;"),CONCATENATE(H39,C39,"_2.jpg;"),CONCATENATE(H39,C39,"_3.jpg;"),CONCATENATE(H39,C39,"_4.jpg;"),CONCATENATE(H39,C39,"_5.jpg;"),CONCATENATE(H39,"instruction_A5.jpg;"),CONCATENATE(H39,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/126_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA39" s="0" t="str">
         <f aca="false">A39</f>
@@ -8805,8 +8805,8 @@
         <v>78</v>
       </c>
       <c r="Y40" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H40,C40,"_1.jpg;"),CONCATENATE(H40,C40,"_2.jpg;"),CONCATENATE(H40,C40,"_3.jpg;"),CONCATENATE(H40,C40,"_4.jpg;"),CONCATENATE(H40,C40,"_5.jpg;"),CONCATENATE(H40,C40,"_6.jpg;"),CONCATENATE(H40,C40,"_7.jpg;"),CONCATENATE(H40,"instruction_A4.jpg;"),CONCATENATE(H40,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H40,C40,"_1.jpg;"),CONCATENATE(H40,C40,"_2.jpg;"),CONCATENATE(H40,C40,"_3.jpg;"),CONCATENATE(H40,C40,"_4.jpg;"),CONCATENATE(H40,C40,"_5.jpg;"),CONCATENATE(H40,"instruction_A5.jpg;"),CONCATENATE(H40,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/127_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA40" s="0" t="str">
         <f aca="false">A40</f>
@@ -8969,8 +8969,8 @@
         <v>78</v>
       </c>
       <c r="Y41" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H41,C41,"_1.jpg;"),CONCATENATE(H41,C41,"_2.jpg;"),CONCATENATE(H41,C41,"_3.jpg;"),CONCATENATE(H41,C41,"_4.jpg;"),CONCATENATE(H41,C41,"_5.jpg;"),CONCATENATE(H41,C41,"_6.jpg;"),CONCATENATE(H41,C41,"_7.jpg;"),CONCATENATE(H41,"instruction_A4.jpg;"),CONCATENATE(H41,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H41,C41,"_1.jpg;"),CONCATENATE(H41,C41,"_2.jpg;"),CONCATENATE(H41,C41,"_3.jpg;"),CONCATENATE(H41,C41,"_4.jpg;"),CONCATENATE(H41,C41,"_5.jpg;"),CONCATENATE(H41,"instruction_A5.jpg;"),CONCATENATE(H41,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/129_vert_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A5/Video_DTF.mp4;</v>
       </c>
       <c r="AA41" s="0" t="str">
         <f aca="false">A41</f>
